--- a/WpfTest/test.xlsx
+++ b/WpfTest/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmatv\source\repos\WpfTest\WpfTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F59D457-8DFF-4FE5-8050-9ECEAD0EB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE2C90-9843-4143-9062-473B9545BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="850" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>q</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Лжедмитрий II</t>
+  </si>
+  <si>
+    <t>Русско-украинской войны</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,6 +660,9 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
       <c r="G6">
         <v>2</v>
       </c>

--- a/WpfTest/test.xlsx
+++ b/WpfTest/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmatv\source\repos\WpfTest\WpfTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE2C90-9843-4143-9062-473B9545BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E777CD-A2E5-4C44-96AD-F334ED98EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="850" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>q</t>
   </si>
@@ -193,13 +193,193 @@
   </si>
   <si>
     <t>Русско-украинской войны</t>
+  </si>
+  <si>
+    <t>Кто из перечисленных являлся главным вдохновителем реакционного курса Александра III</t>
+  </si>
+  <si>
+    <t>К. П. Победоносцев</t>
+  </si>
+  <si>
+    <t>М. Т. Лорис-Меликов</t>
+  </si>
+  <si>
+    <t>А. М. Горчаков</t>
+  </si>
+  <si>
+    <t>П. Н. Врангель</t>
+  </si>
+  <si>
+    <t>А. В. Колча</t>
+  </si>
+  <si>
+    <t>Россия стала Империей в каком году</t>
+  </si>
+  <si>
+    <t>в 1721 г.</t>
+  </si>
+  <si>
+    <t>в 1812 г.</t>
+  </si>
+  <si>
+    <t>в 1612 г.</t>
+  </si>
+  <si>
+    <t>в 1702</t>
+  </si>
+  <si>
+    <t>в 1655 г.</t>
+  </si>
+  <si>
+    <t>События 1905-1907 гг. получили название</t>
+  </si>
+  <si>
+    <t>Бунташного века</t>
+  </si>
+  <si>
+    <t>Первой русской революции</t>
+  </si>
+  <si>
+    <t>Оттепели</t>
+  </si>
+  <si>
+    <t>Перестройка</t>
+  </si>
+  <si>
+    <t>Первая мировая война</t>
+  </si>
+  <si>
+    <t>Как характеризуется период правления Екатерины II?</t>
+  </si>
+  <si>
+    <t>Конституционная монархия</t>
+  </si>
+  <si>
+    <t>Просвещенный абсолютизм</t>
+  </si>
+  <si>
+    <t>Сословно-представительская монархия</t>
+  </si>
+  <si>
+    <t>Анархо-капитализм</t>
+  </si>
+  <si>
+    <t>Марксистский феминизм</t>
+  </si>
+  <si>
+    <t>Период от смерти Петра Великого до воцарения Екатерины Великой получил название:</t>
+  </si>
+  <si>
+    <t>Дворцовых переворотов</t>
+  </si>
+  <si>
+    <t>Бироновщины</t>
+  </si>
+  <si>
+    <t>Златого века Екатерины</t>
+  </si>
+  <si>
+    <t>Смутное время</t>
+  </si>
+  <si>
+    <t>Татаро-монгольское иго</t>
+  </si>
+  <si>
+    <t>Название документа, введенного Петром I, для упорядочения продвижения по статской и военной службе:</t>
+  </si>
+  <si>
+    <t>Указ о заповедных летах</t>
+  </si>
+  <si>
+    <t>Табель о рангах</t>
+  </si>
+  <si>
+    <t>Морской устав</t>
+  </si>
+  <si>
+    <t>Указ о единонаследии</t>
+  </si>
+  <si>
+    <t>Указ об урочных летах</t>
+  </si>
+  <si>
+    <t>Введение правила Юрьева дня означало:</t>
+  </si>
+  <si>
+    <t>Начало закрепощения крестьян</t>
+  </si>
+  <si>
+    <t>Предоставляло свободу вероисповедания</t>
+  </si>
+  <si>
+    <t>Ликвидацию феодальных отношений</t>
+  </si>
+  <si>
+    <t>Появление у крестьян свободы</t>
+  </si>
+  <si>
+    <t>Усиление феодальных отношений</t>
+  </si>
+  <si>
+    <t>Столица Золотой Орды:</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Кашлык</t>
+  </si>
+  <si>
+    <t>Шашлык</t>
+  </si>
+  <si>
+    <t>Сарай</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>На какой реке произошло Крещение Руси?</t>
+  </si>
+  <si>
+    <t>Дунай</t>
+  </si>
+  <si>
+    <t>Днепр</t>
+  </si>
+  <si>
+    <t>Дон</t>
+  </si>
+  <si>
+    <t>Иордан</t>
+  </si>
+  <si>
+    <t>Волга</t>
+  </si>
+  <si>
+    <t>Эта княгиня стала первой женщиной на престоле Руси</t>
+  </si>
+  <si>
+    <t>Марфа</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Ольга</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +393,27 @@
       <name val="PT Serif"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF2B2727"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2B2727"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,9 +436,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,6 +988,236 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/WpfTest/test.xlsx
+++ b/WpfTest/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmatv\source\repos\WpfTest\WpfTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E777CD-A2E5-4C44-96AD-F334ED98EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FC625-3158-4C80-B1A4-F4C42678F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="850" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>в 1612 г.</t>
   </si>
   <si>
-    <t>в 1702</t>
-  </si>
-  <si>
     <t>в 1655 г.</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>Волга</t>
   </si>
   <si>
-    <t>Эта княгиня стала первой женщиной на престоле Руси</t>
-  </si>
-  <si>
     <t>Марфа</t>
   </si>
   <si>
@@ -373,13 +367,19 @@
   </si>
   <si>
     <t>Ольга</t>
+  </si>
+  <si>
+    <t>в 1702 г.</t>
+  </si>
+  <si>
+    <t>Эта княгиня стала первой женщиной на престоле Руси:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,32 +388,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="PT Serif"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF2B2727"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF2B2727"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,11 +435,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -726,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,485 +732,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1583</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1591</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1598</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1605</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1601</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1490</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1491</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1492</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1493</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1494</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G13">
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="3" t="s">
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
     </row>
